--- a/CashFlow/PPG_cashflow.xlsx
+++ b/CashFlow/PPG_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>7027000000.0</v>
+        <v>128000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>6972000000.0</v>
+        <v>111000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>5431000000.0</v>
+        <v>230000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>3807000000.0</v>
+        <v>213000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2156000000.0</v>
+        <v>91000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>145000000.0</v>
@@ -885,19 +885,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>7158000000.0</v>
+        <v>5510000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>6512000000.0</v>
+        <v>5313000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>6205000000.0</v>
+        <v>2897000000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>5915000000.0</v>
+        <v>-470000000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3029000000.0</v>
+        <v>-126000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>-63000000.0</v>
